--- a/biology/Microbiologie/Chilodonellidae/Chilodonellidae.xlsx
+++ b/biology/Microbiologie/Chilodonellidae/Chilodonellidae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Chilodonellidae sont une famille de Ciliés de la classe des Cyrtophoria et de l’ordre des Cyrtophorida.
 </t>
@@ -511,10 +523,12 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nom de la famille vient du genre type Chilodonella, composé de chilodon, par allusion au genre éponyme, et -ella, petite, littéralement « petit Chilodon » . 
-Chilodon est lui-même composé de chil- (dérivé du grec ancien χεῖλος / kheîlos, « bord, ouverture, lèvre »), et -odon (du grec ancien ὀδών / odōn, dent), littéralement « lèvre dentée »[1],[2],[3],[4], probablement en référence à la forme de la partie buccale de l'organisme ressemblant à une lèvre, et dont la rangée de cils peut faire penser à des dents.
+Chilodon est lui-même composé de chil- (dérivé du grec ancien χεῖλος / kheîlos, « bord, ouverture, lèvre »), et -odon (du grec ancien ὀδών / odōn, dent), littéralement « lèvre dentée » probablement en référence à la forme de la partie buccale de l'organisme ressemblant à une lèvre, et dont la rangée de cils peut faire penser à des dents.
 </t>
         </is>
       </c>
@@ -543,12 +557,14 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Coliss fait la description sommaire suivante de cette famille : 
 « (Organismes ayant une) large zone thigmotactique[note 1] ; largeur du corps &lt; 2/3 de la longueur, avec un "bec" antérieur prononcé à gauche ; certaines Chilodonella (sont) nocives pour les branchies des poissons d'eau douce.
-[Nous avons ici la renaissance des Chilodontidae de Bütschli, une famille longtemps abandonnée, dont le nom doit cependant être remplacé, car le nom original d'Ehrenberg pour le genre-type, Chilodon, en est devenu un homonyme junior.][5]. »
+[Nous avons ici la renaissance des Chilodontidae de Bütschli, une famille longtemps abandonnée, dont le nom doit cependant être remplacé, car le nom original d'Ehrenberg pour le genre-type, Chilodon, en est devenu un homonyme junior.]. »
 </t>
         </is>
       </c>
@@ -577,9 +593,11 @@
           <t>Habitat et répartition</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les Chilodonella sont des parasites de divers poissons d'eau douce. Par exemple, l'espèce Chilodonella hexasticha (Kiernik, 1909) Kahl, 1931 vit en parasite sur le Nandus nandus (en) (Hamilton)[6], le « poisson-feuille » du Gange ou nandus tacheté ou encore perche de boue.
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Chilodonella sont des parasites de divers poissons d'eau douce. Par exemple, l'espèce Chilodonella hexasticha (Kiernik, 1909) Kahl, 1931 vit en parasite sur le Nandus nandus (en) (Hamilton), le « poisson-feuille » du Gange ou nandus tacheté ou encore perche de boue.
 Les membres de la famille des Chilodonellidae sont, selon GBIF, largement répartis sur la surface du globe.
 </t>
         </is>
@@ -609,14 +627,16 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Selon GBIF       (28 novembre 2022)[7] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Selon GBIF       (28 novembre 2022) :
 Alinostoma Yankovskij, 1980
 Chilodon Strand, 1928
-Chilodonatella Dragesco, 1966[8]
-Chilodonella Strand, 1928 genre type[9]
-Espèce type : Chilodonella uncinata (Ehrenberg, 1838) Strand, 1928[10]
+Chilodonatella Dragesco, 1966
+Chilodonella Strand, 1928 genre type
+Espèce type : Chilodonella uncinata (Ehrenberg, 1838) Strand, 1928
 Odontochlamys Certes, 1891 genre douteux
 Phascolodon Stein, 1859
 Pseudochilodonopsis Foissner, 1979
@@ -649,9 +669,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom valide de ce taxon est Chilodonellidae Deroux, 1970[11].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom valide de ce taxon est Chilodonellidae Deroux, 1970.
 </t>
         </is>
       </c>
